--- a/integration-web-s3/sae-303/datasets/crea/part-20-24-ans-sans-diplome-val-doise-en-2020.xlsx
+++ b/integration-web-s3/sae-303/datasets/crea/part-20-24-ans-sans-diplome-val-doise-en-2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="431">
   <si>
     <t>code_insee</t>
   </si>
@@ -28,7 +28,7 @@
     <t>annee</t>
   </si>
   <si>
-    <t>pourcentage_sans_diplome</t>
+    <t>pourcentage_18_24_sans_diplome</t>
   </si>
   <si>
     <t>population_totale</t>
@@ -1664,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2017,531 +2017,531 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D16">
         <v>2020</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="F16">
-        <v>860</v>
+        <v>1893</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D17">
         <v>2020</v>
       </c>
       <c r="E17">
-        <v>4.9</v>
+        <v>28.6</v>
       </c>
       <c r="F17">
-        <v>1893</v>
+        <v>149</v>
       </c>
       <c r="G17">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D18">
         <v>2020</v>
       </c>
       <c r="E18">
-        <v>28.6</v>
+        <v>8.5</v>
       </c>
       <c r="F18">
-        <v>149</v>
+        <v>8900</v>
       </c>
       <c r="G18">
-        <v>9.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D19">
         <v>2020</v>
       </c>
       <c r="E19">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>8900</v>
+        <v>9572</v>
       </c>
       <c r="G19">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20">
         <v>2020</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>16.1</v>
       </c>
       <c r="F20">
-        <v>9572</v>
+        <v>473</v>
       </c>
       <c r="G20">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D21">
         <v>2020</v>
       </c>
       <c r="E21">
-        <v>16.1</v>
+        <v>10.5</v>
       </c>
       <c r="F21">
-        <v>473</v>
+        <v>2217</v>
       </c>
       <c r="G21">
-        <v>8.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D22">
         <v>2020</v>
       </c>
       <c r="E22">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>2217</v>
+        <v>2743</v>
       </c>
       <c r="G22">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D23">
         <v>2020</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>2743</v>
+        <v>362</v>
       </c>
       <c r="G23">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D24">
         <v>2020</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F24">
-        <v>362</v>
+        <v>7876</v>
       </c>
       <c r="G24">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D25">
         <v>2020</v>
       </c>
       <c r="E25">
-        <v>9.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F25">
-        <v>7876</v>
+        <v>31866</v>
       </c>
       <c r="G25">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D26">
         <v>2020</v>
       </c>
       <c r="E26">
-        <v>8.699999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="F26">
-        <v>31866</v>
+        <v>855</v>
       </c>
       <c r="G26">
-        <v>8.300000000000001</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="F27">
-        <v>855</v>
+        <v>1934</v>
       </c>
       <c r="G27">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>1934</v>
+        <v>1158</v>
       </c>
       <c r="G28">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>1158</v>
+        <v>6596</v>
       </c>
       <c r="G29">
-        <v>5.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>15.4</v>
       </c>
       <c r="F30">
-        <v>6596</v>
+        <v>303</v>
       </c>
       <c r="G30">
-        <v>8.800000000000001</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D31">
         <v>2020</v>
       </c>
       <c r="E31">
-        <v>15.4</v>
+        <v>10.6</v>
       </c>
       <c r="F31">
-        <v>303</v>
+        <v>966</v>
       </c>
       <c r="G31">
-        <v>11.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>966</v>
+        <v>221</v>
       </c>
       <c r="G32">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F33">
-        <v>221</v>
+        <v>4367</v>
       </c>
       <c r="G33">
-        <v>4.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D34">
         <v>2020</v>
       </c>
       <c r="E34">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F34">
-        <v>4367</v>
+        <v>420</v>
       </c>
       <c r="G34">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D35">
         <v>2020</v>
       </c>
       <c r="E35">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G35">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D36">
         <v>2020</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="F36">
-        <v>320</v>
+        <v>2266</v>
       </c>
       <c r="G36">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D37">
         <v>2020</v>
       </c>
       <c r="E37">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>2266</v>
+        <v>409</v>
       </c>
       <c r="G37">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D38">
         <v>2020</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F38">
-        <v>409</v>
+        <v>67790</v>
       </c>
       <c r="G38">
-        <v>7.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2549,7 +2549,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
         <v>283</v>
@@ -2569,174 +2569,174 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>2020</v>
       </c>
       <c r="E40">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F40">
+        <v>5019</v>
+      </c>
+      <c r="G40">
         <v>7.4</v>
-      </c>
-      <c r="F40">
-        <v>67790</v>
-      </c>
-      <c r="G40">
-        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D41">
         <v>2020</v>
       </c>
       <c r="E41">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>67790</v>
+        <v>36</v>
       </c>
       <c r="G41">
-        <v>14</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D42">
         <v>2020</v>
       </c>
       <c r="E42">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F42">
-        <v>5019</v>
+        <v>2042</v>
       </c>
       <c r="G42">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D43">
         <v>2020</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="F43">
-        <v>36</v>
+        <v>3230</v>
       </c>
       <c r="G43">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D44">
         <v>2020</v>
       </c>
       <c r="E44">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="F44">
-        <v>2042</v>
+        <v>599</v>
       </c>
       <c r="G44">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D45">
         <v>2020</v>
       </c>
       <c r="E45">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>3230</v>
+        <v>297</v>
       </c>
       <c r="G45">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D46">
         <v>2020</v>
       </c>
       <c r="E46">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>599</v>
+        <v>308</v>
       </c>
       <c r="G46">
-        <v>6.6</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D47">
         <v>2020</v>
@@ -2745,21 +2745,21 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="G47">
-        <v>7.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D48">
         <v>2020</v>
@@ -2768,21 +2768,21 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="G48">
-        <v>10.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D49">
         <v>2020</v>
@@ -2791,21 +2791,21 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="G49">
-        <v>11.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D50">
         <v>2020</v>
@@ -2814,642 +2814,642 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>121</v>
+        <v>511</v>
       </c>
       <c r="G50">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D51">
         <v>2020</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="F51">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="G51">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D52">
         <v>2020</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="F52">
-        <v>511</v>
+        <v>26074</v>
       </c>
       <c r="G52">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D53">
         <v>2020</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="F53">
-        <v>511</v>
+        <v>1298</v>
       </c>
       <c r="G53">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D54">
         <v>2020</v>
       </c>
       <c r="E54">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>544</v>
+        <v>298</v>
       </c>
       <c r="G54">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D55">
         <v>2020</v>
       </c>
       <c r="E55">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
       <c r="F55">
-        <v>26074</v>
+        <v>6720</v>
       </c>
       <c r="G55">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D56">
         <v>2020</v>
       </c>
       <c r="E56">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="F56">
-        <v>1298</v>
+        <v>22050</v>
       </c>
       <c r="G56">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D57">
         <v>2020</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="F57">
-        <v>298</v>
+        <v>15685</v>
       </c>
       <c r="G57">
-        <v>6.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D58">
         <v>2020</v>
       </c>
       <c r="E58">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="F58">
-        <v>6720</v>
+        <v>25498</v>
       </c>
       <c r="G58">
-        <v>8.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D59">
         <v>2020</v>
       </c>
       <c r="E59">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>22050</v>
+        <v>11416</v>
       </c>
       <c r="G59">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D60">
         <v>2020</v>
       </c>
       <c r="E60">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="F60">
-        <v>15685</v>
+        <v>2467</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D61">
         <v>2020</v>
       </c>
       <c r="E61">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="F61">
-        <v>25498</v>
+        <v>29230</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D62">
         <v>2020</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F62">
-        <v>11416</v>
+        <v>2078</v>
       </c>
       <c r="G62">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D63">
         <v>2020</v>
       </c>
       <c r="E63">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="F63">
-        <v>2467</v>
+        <v>9830</v>
       </c>
       <c r="G63">
-        <v>5.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D64">
         <v>2020</v>
       </c>
       <c r="E64">
-        <v>6.7</v>
+        <v>10.2</v>
       </c>
       <c r="F64">
-        <v>29230</v>
+        <v>37347</v>
       </c>
       <c r="G64">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D65">
         <v>2020</v>
       </c>
       <c r="E65">
-        <v>9.199999999999999</v>
+        <v>25.2</v>
       </c>
       <c r="F65">
-        <v>2078</v>
+        <v>349</v>
       </c>
       <c r="G65">
-        <v>8.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D66">
         <v>2020</v>
       </c>
       <c r="E66">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="F66">
-        <v>9830</v>
+        <v>515</v>
       </c>
       <c r="G66">
-        <v>8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D67">
         <v>2020</v>
       </c>
       <c r="E67">
-        <v>10.2</v>
+        <v>14.3</v>
       </c>
       <c r="F67">
-        <v>37347</v>
+        <v>551</v>
       </c>
       <c r="G67">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D68">
         <v>2020</v>
       </c>
       <c r="E68">
-        <v>25.2</v>
+        <v>6.1</v>
       </c>
       <c r="F68">
-        <v>349</v>
+        <v>3346</v>
       </c>
       <c r="G68">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D69">
         <v>2020</v>
       </c>
       <c r="E69">
-        <v>5.8</v>
+        <v>14.7</v>
       </c>
       <c r="F69">
-        <v>515</v>
+        <v>43215</v>
       </c>
       <c r="G69">
-        <v>5.6</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D70">
         <v>2020</v>
       </c>
       <c r="E70">
-        <v>14.3</v>
+        <v>4.1</v>
       </c>
       <c r="F70">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G70">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D71">
         <v>2020</v>
       </c>
       <c r="E71">
-        <v>6.1</v>
+        <v>10.3</v>
       </c>
       <c r="F71">
-        <v>3346</v>
+        <v>25853</v>
       </c>
       <c r="G71">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D72">
         <v>2020</v>
       </c>
       <c r="E72">
-        <v>14.7</v>
+        <v>12.8</v>
       </c>
       <c r="F72">
-        <v>43215</v>
+        <v>30910</v>
       </c>
       <c r="G72">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D73">
         <v>2020</v>
       </c>
       <c r="E73">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="F73">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="G73">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D74">
         <v>2020</v>
       </c>
       <c r="E74">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>25853</v>
+        <v>8474</v>
       </c>
       <c r="G74">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D75">
         <v>2020</v>
       </c>
       <c r="E75">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>30910</v>
+        <v>143</v>
       </c>
       <c r="G75">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D76">
         <v>2020</v>
       </c>
       <c r="E76">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="F76">
-        <v>698</v>
+        <v>514</v>
       </c>
       <c r="G76">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D77">
         <v>2020</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>3.7</v>
       </c>
       <c r="F77">
-        <v>8474</v>
+        <v>566</v>
       </c>
       <c r="G77">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D78">
         <v>2020</v>
@@ -3458,435 +3458,435 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="G78">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D79">
         <v>2020</v>
       </c>
       <c r="E79">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="F79">
-        <v>514</v>
+        <v>31747</v>
       </c>
       <c r="G79">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D80">
         <v>2020</v>
       </c>
       <c r="E80">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>566</v>
+        <v>213</v>
       </c>
       <c r="G80">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D81">
         <v>2020</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="F81">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G81">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D82">
         <v>2020</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="F82">
-        <v>31747</v>
+        <v>572</v>
       </c>
       <c r="G82">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D83">
         <v>2020</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>31747</v>
+        <v>271</v>
       </c>
       <c r="G83">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D84">
         <v>2020</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F84">
-        <v>213</v>
+        <v>17225</v>
       </c>
       <c r="G84">
-        <v>8.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D85">
         <v>2020</v>
       </c>
       <c r="E85">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="F85">
-        <v>281</v>
+        <v>11723</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D86">
         <v>2020</v>
       </c>
       <c r="E86">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="F86">
-        <v>572</v>
+        <v>322</v>
       </c>
       <c r="G86">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D87">
         <v>2020</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F87">
-        <v>271</v>
+        <v>4655</v>
       </c>
       <c r="G87">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D88">
         <v>2020</v>
       </c>
       <c r="E88">
-        <v>13</v>
+        <v>30.3</v>
       </c>
       <c r="F88">
-        <v>17225</v>
+        <v>479</v>
       </c>
       <c r="G88">
-        <v>9</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D89">
         <v>2020</v>
       </c>
       <c r="E89">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F89">
-        <v>17225</v>
+        <v>644</v>
       </c>
       <c r="G89">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D90">
         <v>2020</v>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>5.9</v>
       </c>
       <c r="F90">
-        <v>17225</v>
+        <v>191</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C91" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D91">
         <v>2020</v>
       </c>
       <c r="E91">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>11723</v>
+        <v>214</v>
       </c>
       <c r="G91">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D92">
         <v>2020</v>
       </c>
       <c r="E92">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="G92">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D93">
         <v>2020</v>
       </c>
       <c r="E93">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="F93">
-        <v>4655</v>
+        <v>907</v>
       </c>
       <c r="G93">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D94">
         <v>2020</v>
       </c>
       <c r="E94">
-        <v>30.3</v>
+        <v>4.4</v>
       </c>
       <c r="F94">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="G94">
-        <v>11.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D95">
         <v>2020</v>
       </c>
       <c r="E95">
-        <v>16</v>
+        <v>3.8</v>
       </c>
       <c r="F95">
-        <v>644</v>
+        <v>8454</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D96">
         <v>2020</v>
       </c>
       <c r="E96">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="G96">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D97">
         <v>2020</v>
@@ -3895,1479 +3895,1479 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="G97">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D98">
         <v>2020</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="F98">
-        <v>203</v>
+        <v>4597</v>
       </c>
       <c r="G98">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D99">
         <v>2020</v>
       </c>
       <c r="E99">
-        <v>1.9</v>
+        <v>41.8</v>
       </c>
       <c r="F99">
-        <v>907</v>
+        <v>382</v>
       </c>
       <c r="G99">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
         <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D100">
         <v>2020</v>
       </c>
       <c r="E100">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="F100">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G100">
-        <v>6.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D101">
         <v>2020</v>
       </c>
       <c r="E101">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="F101">
-        <v>8454</v>
+        <v>11356</v>
       </c>
       <c r="G101">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D102">
         <v>2020</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="F102">
-        <v>82</v>
+        <v>4828</v>
       </c>
       <c r="G102">
-        <v>6.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="C103" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D103">
         <v>2020</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F103">
-        <v>130</v>
+        <v>1830</v>
       </c>
       <c r="G103">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="C104" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D104">
         <v>2020</v>
       </c>
       <c r="E104">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>4597</v>
+        <v>5810</v>
       </c>
       <c r="G104">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D105">
         <v>2020</v>
       </c>
       <c r="E105">
-        <v>41.8</v>
+        <v>14</v>
       </c>
       <c r="F105">
-        <v>382</v>
+        <v>718</v>
       </c>
       <c r="G105">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D106">
         <v>2020</v>
       </c>
       <c r="E106">
-        <v>2.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F106">
-        <v>535</v>
+        <v>2830</v>
       </c>
       <c r="G106">
-        <v>10.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D107">
         <v>2020</v>
       </c>
       <c r="E107">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F107">
-        <v>11356</v>
+        <v>3438</v>
       </c>
       <c r="G107">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D108">
         <v>2020</v>
       </c>
       <c r="E108">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F108">
-        <v>4828</v>
+        <v>5661</v>
       </c>
       <c r="G108">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D109">
         <v>2020</v>
       </c>
       <c r="E109">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1830</v>
+        <v>193</v>
       </c>
       <c r="G109">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D110">
         <v>2020</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>5810</v>
+        <v>63</v>
       </c>
       <c r="G110">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D111">
         <v>2020</v>
       </c>
       <c r="E111">
-        <v>14</v>
+        <v>11.3</v>
       </c>
       <c r="F111">
-        <v>718</v>
+        <v>5998</v>
       </c>
       <c r="G111">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D112">
         <v>2020</v>
       </c>
       <c r="E112">
-        <v>9.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="F112">
-        <v>2830</v>
+        <v>1264</v>
       </c>
       <c r="G112">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D113">
         <v>2020</v>
       </c>
       <c r="E113">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>3438</v>
+        <v>338</v>
       </c>
       <c r="G113">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D114">
         <v>2020</v>
       </c>
       <c r="E114">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="F114">
-        <v>5661</v>
+        <v>22186</v>
       </c>
       <c r="G114">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D115">
         <v>2020</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F115">
-        <v>193</v>
+        <v>2917</v>
       </c>
       <c r="G115">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D116">
         <v>2020</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F116">
-        <v>63</v>
+        <v>14550</v>
       </c>
       <c r="G116">
-        <v>3.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C117" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D117">
         <v>2020</v>
       </c>
       <c r="E117">
-        <v>11.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F117">
-        <v>5998</v>
+        <v>21688</v>
       </c>
       <c r="G117">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D118">
         <v>2020</v>
       </c>
       <c r="E118">
-        <v>2.8</v>
+        <v>13.9</v>
       </c>
       <c r="F118">
-        <v>1264</v>
+        <v>398</v>
       </c>
       <c r="G118">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D119">
         <v>2020</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="F119">
-        <v>338</v>
+        <v>3703</v>
       </c>
       <c r="G119">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C120" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D120">
         <v>2020</v>
       </c>
       <c r="E120">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="F120">
-        <v>22186</v>
+        <v>1655</v>
       </c>
       <c r="G120">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C121" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D121">
         <v>2020</v>
       </c>
       <c r="E121">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>2917</v>
+        <v>116</v>
       </c>
       <c r="G121">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C122" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D122">
         <v>2020</v>
       </c>
       <c r="E122">
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="F122">
-        <v>14550</v>
+        <v>5211</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D123">
         <v>2020</v>
       </c>
       <c r="E123">
-        <v>8.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F123">
-        <v>21688</v>
+        <v>9983</v>
       </c>
       <c r="G123">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D124">
         <v>2020</v>
       </c>
       <c r="E124">
-        <v>13.9</v>
+        <v>30.7</v>
       </c>
       <c r="F124">
-        <v>398</v>
+        <v>753</v>
       </c>
       <c r="G124">
-        <v>4.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C125" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D125">
         <v>2020</v>
       </c>
       <c r="E125">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="F125">
-        <v>3703</v>
+        <v>1780</v>
       </c>
       <c r="G125">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D126">
         <v>2020</v>
       </c>
       <c r="E126">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F126">
-        <v>1655</v>
+        <v>229</v>
       </c>
       <c r="G126">
-        <v>6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C127" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D127">
         <v>2020</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F127">
-        <v>116</v>
+        <v>2056</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C128" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D128">
         <v>2020</v>
       </c>
       <c r="E128">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="F128">
-        <v>5211</v>
+        <v>868</v>
       </c>
       <c r="G128">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="C129" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D129">
         <v>2020</v>
       </c>
       <c r="E129">
-        <v>9.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="F129">
-        <v>9983</v>
+        <v>647</v>
       </c>
       <c r="G129">
-        <v>8.300000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="C130" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D130">
         <v>2020</v>
       </c>
       <c r="E130">
-        <v>30.7</v>
+        <v>7.1</v>
       </c>
       <c r="F130">
-        <v>753</v>
+        <v>706</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C131" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D131">
         <v>2020</v>
       </c>
       <c r="E131">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1780</v>
+        <v>322</v>
       </c>
       <c r="G131">
-        <v>6.3</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D132">
         <v>2020</v>
       </c>
       <c r="E132">
-        <v>6.7</v>
+        <v>13.9</v>
       </c>
       <c r="F132">
-        <v>229</v>
+        <v>17111</v>
       </c>
       <c r="G132">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="C133" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D133">
         <v>2020</v>
       </c>
       <c r="E133">
-        <v>5.4</v>
+        <v>10.8</v>
       </c>
       <c r="F133">
-        <v>2056</v>
+        <v>5602</v>
       </c>
       <c r="G133">
-        <v>17.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D134">
         <v>2020</v>
       </c>
       <c r="E134">
-        <v>7.8</v>
+        <v>14.4</v>
       </c>
       <c r="F134">
-        <v>868</v>
+        <v>14029</v>
       </c>
       <c r="G134">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="C135" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D135">
         <v>2020</v>
       </c>
       <c r="E135">
-        <v>6.1</v>
+        <v>13.9</v>
       </c>
       <c r="F135">
-        <v>647</v>
+        <v>9734</v>
       </c>
       <c r="G135">
-        <v>9.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D136">
         <v>2020</v>
       </c>
       <c r="E136">
-        <v>7.1</v>
+        <v>13.9</v>
       </c>
       <c r="F136">
-        <v>706</v>
+        <v>9734</v>
       </c>
       <c r="G136">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C137" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D137">
         <v>2020</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F137">
-        <v>322</v>
+        <v>669</v>
       </c>
       <c r="G137">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="C138" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D138">
         <v>2020</v>
       </c>
       <c r="E138">
-        <v>13.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F138">
-        <v>17111</v>
+        <v>31973</v>
       </c>
       <c r="G138">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D139">
         <v>2020</v>
       </c>
       <c r="E139">
-        <v>10.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F139">
-        <v>5602</v>
+        <v>31973</v>
       </c>
       <c r="G139">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C140" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D140">
         <v>2020</v>
       </c>
       <c r="E140">
-        <v>14.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F140">
-        <v>14029</v>
+        <v>3948</v>
       </c>
       <c r="G140">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C141" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D141">
         <v>2020</v>
       </c>
       <c r="E141">
-        <v>13.9</v>
+        <v>3.9</v>
       </c>
       <c r="F141">
-        <v>9734</v>
+        <v>571</v>
       </c>
       <c r="G141">
-        <v>9</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D142">
         <v>2020</v>
       </c>
       <c r="E142">
-        <v>13.9</v>
+        <v>3.6</v>
       </c>
       <c r="F142">
-        <v>9734</v>
+        <v>3583</v>
       </c>
       <c r="G142">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C143" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D143">
         <v>2020</v>
       </c>
       <c r="E143">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="F143">
-        <v>669</v>
+        <v>2793</v>
       </c>
       <c r="G143">
-        <v>7.1</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C144" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D144">
         <v>2020</v>
       </c>
       <c r="E144">
-        <v>9.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="F144">
-        <v>31973</v>
+        <v>874</v>
       </c>
       <c r="G144">
-        <v>10.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="C145" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D145">
         <v>2020</v>
       </c>
       <c r="E145">
-        <v>9.699999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="F145">
-        <v>31973</v>
+        <v>1103</v>
       </c>
       <c r="G145">
-        <v>10.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C146" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D146">
         <v>2020</v>
       </c>
       <c r="E146">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="F146">
-        <v>3948</v>
+        <v>15102</v>
       </c>
       <c r="G146">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C147" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D147">
         <v>2020</v>
       </c>
       <c r="E147">
-        <v>3.9</v>
+        <v>14.9</v>
       </c>
       <c r="F147">
-        <v>571</v>
+        <v>993</v>
       </c>
       <c r="G147">
-        <v>12.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="C148" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D148">
         <v>2020</v>
       </c>
       <c r="E148">
-        <v>3.6</v>
+        <v>14.3</v>
       </c>
       <c r="F148">
-        <v>3583</v>
+        <v>239</v>
       </c>
       <c r="G148">
-        <v>8.300000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D149">
         <v>2020</v>
       </c>
       <c r="E149">
-        <v>10.7</v>
+        <v>5.2</v>
       </c>
       <c r="F149">
-        <v>2793</v>
+        <v>891</v>
       </c>
       <c r="G149">
-        <v>14.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="C150" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D150">
         <v>2020</v>
       </c>
       <c r="E150">
-        <v>10.7</v>
+        <v>7</v>
       </c>
       <c r="F150">
-        <v>2793</v>
+        <v>20914</v>
       </c>
       <c r="G150">
-        <v>14.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="C151" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D151">
         <v>2020</v>
       </c>
       <c r="E151">
-        <v>11.3</v>
+        <v>8.9</v>
       </c>
       <c r="F151">
-        <v>874</v>
+        <v>16076</v>
       </c>
       <c r="G151">
-        <v>8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C152" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D152">
         <v>2020</v>
       </c>
       <c r="E152">
-        <v>5.6</v>
+        <v>10.7</v>
       </c>
       <c r="F152">
-        <v>1103</v>
+        <v>2656</v>
       </c>
       <c r="G152">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C153" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D153">
         <v>2020</v>
       </c>
       <c r="E153">
-        <v>8.1</v>
+        <v>14.1</v>
       </c>
       <c r="F153">
-        <v>15102</v>
+        <v>24743</v>
       </c>
       <c r="G153">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C154" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D154">
         <v>2020</v>
       </c>
       <c r="E154">
-        <v>14.9</v>
+        <v>6.5</v>
       </c>
       <c r="F154">
-        <v>993</v>
+        <v>7220</v>
       </c>
       <c r="G154">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="C155" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D155">
         <v>2020</v>
       </c>
       <c r="E155">
-        <v>14.3</v>
+        <v>5.4</v>
       </c>
       <c r="F155">
-        <v>239</v>
+        <v>2439</v>
       </c>
       <c r="G155">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="C156" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D156">
         <v>2020</v>
       </c>
       <c r="E156">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F156">
-        <v>891</v>
+        <v>26524</v>
       </c>
       <c r="G156">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D157">
         <v>2020</v>
       </c>
       <c r="E157">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="F157">
-        <v>20914</v>
+        <v>663</v>
       </c>
       <c r="G157">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C158" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D158">
         <v>2020</v>
       </c>
       <c r="E158">
-        <v>8.9</v>
+        <v>15.2</v>
       </c>
       <c r="F158">
-        <v>16076</v>
+        <v>58483</v>
       </c>
       <c r="G158">
-        <v>8.1</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D159">
         <v>2020</v>
       </c>
       <c r="E159">
-        <v>10.7</v>
+        <v>3.8</v>
       </c>
       <c r="F159">
-        <v>2656</v>
+        <v>1297</v>
       </c>
       <c r="G159">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="C160" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D160">
         <v>2020</v>
       </c>
       <c r="E160">
-        <v>14.1</v>
+        <v>1.8</v>
       </c>
       <c r="F160">
-        <v>24743</v>
+        <v>1038</v>
       </c>
       <c r="G160">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D161">
         <v>2020</v>
       </c>
       <c r="E161">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="F161">
-        <v>7220</v>
+        <v>18061</v>
       </c>
       <c r="G161">
         <v>8.300000000000001</v>
@@ -5375,114 +5375,114 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
         <v>218</v>
       </c>
       <c r="C162" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D162">
         <v>2020</v>
       </c>
       <c r="E162">
-        <v>5.4</v>
+        <v>11.4</v>
       </c>
       <c r="F162">
-        <v>2439</v>
+        <v>4276</v>
       </c>
       <c r="G162">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C163" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D163">
         <v>2020</v>
       </c>
       <c r="E163">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F163">
-        <v>26524</v>
+        <v>26607</v>
       </c>
       <c r="G163">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C164" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D164">
         <v>2020</v>
       </c>
       <c r="E164">
-        <v>3.7</v>
+        <v>33.3</v>
       </c>
       <c r="F164">
-        <v>663</v>
+        <v>53</v>
       </c>
       <c r="G164">
-        <v>5.9</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="C165" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D165">
         <v>2020</v>
       </c>
       <c r="E165">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>58483</v>
+        <v>301</v>
       </c>
       <c r="G165">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
         <v>130</v>
       </c>
       <c r="C166" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D166">
         <v>2020</v>
       </c>
       <c r="E166">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="F166">
-        <v>1297</v>
+        <v>1339</v>
       </c>
       <c r="G166">
         <v>8.4</v>
@@ -5490,22 +5490,22 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="C167" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D167">
         <v>2020</v>
       </c>
       <c r="E167">
-        <v>1.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F167">
-        <v>1038</v>
+        <v>594</v>
       </c>
       <c r="G167">
         <v>7.3</v>
@@ -5513,645 +5513,484 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C168" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D168">
         <v>2020</v>
       </c>
       <c r="E168">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F168">
-        <v>18061</v>
+        <v>1222</v>
       </c>
       <c r="G168">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="C169" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D169">
         <v>2020</v>
       </c>
       <c r="E169">
-        <v>11.4</v>
+        <v>33.3</v>
       </c>
       <c r="F169">
-        <v>4276</v>
+        <v>101</v>
       </c>
       <c r="G169">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="C170" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D170">
         <v>2020</v>
       </c>
       <c r="E170">
-        <v>9.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="F170">
-        <v>26607</v>
+        <v>16020</v>
       </c>
       <c r="G170">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="C171" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D171">
         <v>2020</v>
       </c>
       <c r="E171">
-        <v>33.3</v>
+        <v>10.7</v>
       </c>
       <c r="F171">
-        <v>53</v>
+        <v>5264</v>
       </c>
       <c r="G171">
-        <v>13.3</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D172">
         <v>2020</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="F172">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="G172">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
         <v>130</v>
       </c>
       <c r="C173" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D173">
         <v>2020</v>
       </c>
       <c r="E173">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="F173">
-        <v>1339</v>
+        <v>1098</v>
       </c>
       <c r="G173">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C174" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D174">
         <v>2020</v>
       </c>
       <c r="E174">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F174">
-        <v>594</v>
+        <v>762</v>
       </c>
       <c r="G174">
-        <v>7.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C175" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D175">
         <v>2020</v>
       </c>
       <c r="E175">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="F175">
-        <v>1222</v>
+        <v>1534</v>
       </c>
       <c r="G175">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C176" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D176">
         <v>2020</v>
       </c>
       <c r="E176">
-        <v>33.3</v>
+        <v>5</v>
       </c>
       <c r="F176">
-        <v>101</v>
+        <v>490</v>
       </c>
       <c r="G176">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C177" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D177">
         <v>2020</v>
       </c>
       <c r="E177">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="F177">
-        <v>16020</v>
+        <v>857</v>
       </c>
       <c r="G177">
-        <v>8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="C178" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D178">
         <v>2020</v>
       </c>
       <c r="E178">
-        <v>10.7</v>
+        <v>17.3</v>
       </c>
       <c r="F178">
-        <v>5264</v>
+        <v>28636</v>
       </c>
       <c r="G178">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C179" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D179">
         <v>2020</v>
       </c>
       <c r="E179">
-        <v>7.9</v>
+        <v>27.3</v>
       </c>
       <c r="F179">
-        <v>376</v>
+        <v>193</v>
       </c>
       <c r="G179">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="C180" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D180">
         <v>2020</v>
       </c>
       <c r="E180">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="F180">
-        <v>1098</v>
+        <v>2710</v>
       </c>
       <c r="G180">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="C181" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D181">
         <v>2020</v>
       </c>
       <c r="E181">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="F181">
-        <v>762</v>
+        <v>885</v>
       </c>
       <c r="G181">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D182">
         <v>2020</v>
       </c>
       <c r="E182">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1534</v>
+        <v>330</v>
       </c>
       <c r="G182">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="C183" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D183">
         <v>2020</v>
       </c>
       <c r="E183">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F183">
-        <v>490</v>
+        <v>7099</v>
       </c>
       <c r="G183">
-        <v>5.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C184" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D184">
         <v>2020</v>
       </c>
       <c r="E184">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="F184">
-        <v>857</v>
+        <v>616</v>
       </c>
       <c r="G184">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C185" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D185">
         <v>2020</v>
       </c>
       <c r="E185">
-        <v>17.3</v>
+        <v>50</v>
       </c>
       <c r="F185">
-        <v>28636</v>
+        <v>112</v>
       </c>
       <c r="G185">
-        <v>9.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="C186" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D186">
         <v>2020</v>
       </c>
       <c r="E186">
-        <v>27.3</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="G186">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="C187" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D187">
         <v>2020</v>
       </c>
       <c r="E187">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="F187">
-        <v>2710</v>
+        <v>18317</v>
       </c>
       <c r="G187">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="C188" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D188">
         <v>2020</v>
       </c>
       <c r="E188">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="F188">
-        <v>885</v>
+        <v>9594</v>
       </c>
       <c r="G188">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" t="s">
-        <v>183</v>
-      </c>
-      <c r="B189" t="s">
-        <v>190</v>
-      </c>
-      <c r="C189" t="s">
-        <v>424</v>
-      </c>
-      <c r="D189">
-        <v>2020</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>330</v>
-      </c>
-      <c r="G189">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>184</v>
-      </c>
-      <c r="B190" t="s">
-        <v>246</v>
-      </c>
-      <c r="C190" t="s">
-        <v>425</v>
-      </c>
-      <c r="D190">
-        <v>2020</v>
-      </c>
-      <c r="E190">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F190">
-        <v>7099</v>
-      </c>
-      <c r="G190">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" t="s">
-        <v>185</v>
-      </c>
-      <c r="B191" t="s">
-        <v>194</v>
-      </c>
-      <c r="C191" t="s">
-        <v>426</v>
-      </c>
-      <c r="D191">
-        <v>2020</v>
-      </c>
-      <c r="E191">
-        <v>6.5</v>
-      </c>
-      <c r="F191">
-        <v>616</v>
-      </c>
-      <c r="G191">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" t="s">
-        <v>186</v>
-      </c>
-      <c r="B192" t="s">
-        <v>210</v>
-      </c>
-      <c r="C192" t="s">
-        <v>427</v>
-      </c>
-      <c r="D192">
-        <v>2020</v>
-      </c>
-      <c r="E192">
-        <v>50</v>
-      </c>
-      <c r="F192">
-        <v>112</v>
-      </c>
-      <c r="G192">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>187</v>
-      </c>
-      <c r="B193" t="s">
-        <v>73</v>
-      </c>
-      <c r="C193" t="s">
-        <v>428</v>
-      </c>
-      <c r="D193">
-        <v>2020</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>66</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" t="s">
-        <v>188</v>
-      </c>
-      <c r="B194" t="s">
-        <v>166</v>
-      </c>
-      <c r="C194" t="s">
-        <v>429</v>
-      </c>
-      <c r="D194">
-        <v>2020</v>
-      </c>
-      <c r="E194">
-        <v>9.6</v>
-      </c>
-      <c r="F194">
-        <v>18317</v>
-      </c>
-      <c r="G194">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" t="s">
-        <v>189</v>
-      </c>
-      <c r="B195" t="s">
-        <v>247</v>
-      </c>
-      <c r="C195" t="s">
-        <v>430</v>
-      </c>
-      <c r="D195">
-        <v>2020</v>
-      </c>
-      <c r="E195">
-        <v>9.1</v>
-      </c>
-      <c r="F195">
-        <v>9594</v>
-      </c>
-      <c r="G195">
         <v>7.8</v>
       </c>
     </row>
